--- a/team_specific_matrix/Ball St._A.xlsx
+++ b/team_specific_matrix/Ball St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1513761467889908</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="C2">
-        <v>0.6467889908256881</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009174311926605505</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1146788990825688</v>
+        <v>0.1347517730496454</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07798165137614679</v>
+        <v>0.07801418439716312</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02702702702702703</v>
+        <v>0.03314917127071823</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01351351351351351</v>
+        <v>0.02762430939226519</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7837837837837838</v>
+        <v>0.7624309392265194</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1756756756756757</v>
+        <v>0.1767955801104972</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05263157894736842</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7631578947368421</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1842105263157895</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05357142857142857</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01785714285714286</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08928571428571429</v>
+        <v>0.0825242718446602</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2261904761904762</v>
+        <v>0.2427184466019418</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1369047619047619</v>
+        <v>0.1213592233009709</v>
       </c>
       <c r="R6">
-        <v>0.07738095238095238</v>
+        <v>0.09223300970873786</v>
       </c>
       <c r="S6">
-        <v>0.3988095238095238</v>
+        <v>0.383495145631068</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08661417322834646</v>
+        <v>0.08125</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01574803149606299</v>
+        <v>0.03125</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07086614173228346</v>
+        <v>0.06875000000000001</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09448818897637795</v>
+        <v>0.08125</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007874015748031496</v>
+        <v>0.00625</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1968503937007874</v>
+        <v>0.18125</v>
       </c>
       <c r="R7">
-        <v>0.07874015748031496</v>
+        <v>0.075</v>
       </c>
       <c r="S7">
-        <v>0.4488188976377953</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09037900874635568</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02332361516034985</v>
+        <v>0.02093023255813953</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07871720116618076</v>
+        <v>0.08604651162790698</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.119533527696793</v>
+        <v>0.1116279069767442</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02332361516034985</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1603498542274052</v>
+        <v>0.1488372093023256</v>
       </c>
       <c r="R8">
-        <v>0.1020408163265306</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="S8">
-        <v>0.402332361516035</v>
+        <v>0.4116279069767442</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1379310344827586</v>
+        <v>0.1420118343195266</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01379310344827586</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09655172413793103</v>
+        <v>0.08284023668639054</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09655172413793103</v>
+        <v>0.1005917159763314</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01379310344827586</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1931034482758621</v>
+        <v>0.1834319526627219</v>
       </c>
       <c r="R9">
-        <v>0.08275862068965517</v>
+        <v>0.08284023668639054</v>
       </c>
       <c r="S9">
-        <v>0.3655172413793104</v>
+        <v>0.378698224852071</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1312785388127854</v>
+        <v>0.1293800539083558</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02625570776255708</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="E10">
-        <v>0.001141552511415525</v>
+        <v>0.0008984725965858042</v>
       </c>
       <c r="F10">
-        <v>0.07077625570776255</v>
+        <v>0.0664869721473495</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1073059360730594</v>
+        <v>0.1114106019766397</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01255707762557078</v>
+        <v>0.01347708894878706</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1929223744292237</v>
+        <v>0.1949685534591195</v>
       </c>
       <c r="R10">
-        <v>0.0958904109589041</v>
+        <v>0.09344115004492363</v>
       </c>
       <c r="S10">
-        <v>0.3618721461187215</v>
+        <v>0.3647798742138365</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1518324607329843</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09424083769633508</v>
+        <v>0.1088709677419355</v>
       </c>
       <c r="K11">
-        <v>0.193717277486911</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="L11">
-        <v>0.5602094240837696</v>
+        <v>0.5282258064516129</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.008064516129032258</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7545454545454545</v>
+        <v>0.7686567164179104</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1636363636363636</v>
+        <v>0.1567164179104478</v>
       </c>
       <c r="K12">
-        <v>0.00909090909090909</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="L12">
-        <v>0.03636363636363636</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03636363636363636</v>
+        <v>0.03731343283582089</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.65625</v>
+        <v>0.675</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3125</v>
+        <v>0.3</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03125</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01398601398601399</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2517482517482518</v>
+        <v>0.2514285714285714</v>
       </c>
       <c r="I15">
-        <v>0.07692307692307693</v>
+        <v>0.06857142857142857</v>
       </c>
       <c r="J15">
-        <v>0.3146853146853147</v>
+        <v>0.32</v>
       </c>
       <c r="K15">
-        <v>0.04895104895104895</v>
+        <v>0.04</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01398601398601399</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04895104895104895</v>
+        <v>0.04571428571428571</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2307692307692308</v>
+        <v>0.2514285714285714</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01219512195121951</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2073170731707317</v>
+        <v>0.178743961352657</v>
       </c>
       <c r="I16">
-        <v>0.07926829268292683</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="J16">
-        <v>0.3841463414634146</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="K16">
-        <v>0.1097560975609756</v>
+        <v>0.106280193236715</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03658536585365853</v>
+        <v>0.03381642512077294</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04878048780487805</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1219512195121951</v>
+        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01666666666666667</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1766666666666667</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="I17">
-        <v>0.09666666666666666</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="J17">
-        <v>0.48</v>
+        <v>0.4699453551912569</v>
       </c>
       <c r="K17">
-        <v>0.07333333333333333</v>
+        <v>0.07650273224043716</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01</v>
+        <v>0.01366120218579235</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.00273224043715847</v>
       </c>
       <c r="O17">
-        <v>0.06666666666666667</v>
+        <v>0.06830601092896176</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08</v>
+        <v>0.09016393442622951</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01986754966887417</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1854304635761589</v>
+        <v>0.1884816753926702</v>
       </c>
       <c r="I18">
-        <v>0.08609271523178808</v>
+        <v>0.07853403141361257</v>
       </c>
       <c r="J18">
-        <v>0.4039735099337748</v>
+        <v>0.418848167539267</v>
       </c>
       <c r="K18">
-        <v>0.09933774834437085</v>
+        <v>0.09947643979057591</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01324503311258278</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08609271523178808</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1059602649006623</v>
+        <v>0.1099476439790576</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01262916188289323</v>
+        <v>0.01263537906137184</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2238805970149254</v>
+        <v>0.2310469314079422</v>
       </c>
       <c r="I19">
-        <v>0.09184845005740529</v>
+        <v>0.08212996389891697</v>
       </c>
       <c r="J19">
-        <v>0.3708381171067738</v>
+        <v>0.3763537906137184</v>
       </c>
       <c r="K19">
-        <v>0.09873708381171067</v>
+        <v>0.1028880866425993</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02296211251435132</v>
+        <v>0.02256317689530686</v>
       </c>
       <c r="N19">
-        <v>0.001148105625717566</v>
+        <v>0.0009025270758122744</v>
       </c>
       <c r="O19">
-        <v>0.05970149253731343</v>
+        <v>0.05776173285198556</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1182548794489093</v>
+        <v>0.1137184115523466</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Ball St._A.xlsx
+++ b/team_specific_matrix/Ball St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1702127659574468</v>
+        <v>0.1656050955414013</v>
       </c>
       <c r="C2">
-        <v>0.6063829787234043</v>
+        <v>0.6178343949044586</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01063829787234043</v>
+        <v>0.009554140127388535</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1347517730496454</v>
+        <v>0.1273885350318471</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07801418439716312</v>
+        <v>0.07961783439490445</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03314917127071823</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02762430939226519</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7624309392265194</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1767955801104972</v>
+        <v>0.1617647058823529</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04166666666666666</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7708333333333334</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1875</v>
+        <v>0.1886792452830189</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05825242718446602</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01456310679611651</v>
+        <v>0.01293103448275862</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0825242718446602</v>
+        <v>0.08189655172413793</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2427184466019418</v>
+        <v>0.2543103448275862</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004854368932038835</v>
+        <v>0.004310344827586207</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1213592233009709</v>
+        <v>0.1163793103448276</v>
       </c>
       <c r="R6">
-        <v>0.09223300970873786</v>
+        <v>0.08189655172413793</v>
       </c>
       <c r="S6">
-        <v>0.383495145631068</v>
+        <v>0.3879310344827586</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08125</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03125</v>
+        <v>0.02873563218390805</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06875000000000001</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08125</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.00625</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.18125</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="R7">
-        <v>0.075</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="S7">
-        <v>0.475</v>
+        <v>0.4712643678160919</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09302325581395349</v>
+        <v>0.09394572025052192</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02093023255813953</v>
+        <v>0.0208768267223382</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08604651162790698</v>
+        <v>0.08559498956158663</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1116279069767442</v>
+        <v>0.1106471816283925</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02325581395348837</v>
+        <v>0.0208768267223382</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1488372093023256</v>
+        <v>0.1419624217118998</v>
       </c>
       <c r="R8">
-        <v>0.1046511627906977</v>
+        <v>0.1064718162839248</v>
       </c>
       <c r="S8">
-        <v>0.4116279069767442</v>
+        <v>0.4196242171189979</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1420118343195266</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01775147928994083</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08284023668639054</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1005917159763314</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01183431952662722</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1834319526627219</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="R9">
-        <v>0.08284023668639054</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="S9">
-        <v>0.378698224852071</v>
+        <v>0.3631578947368421</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1293800539083558</v>
+        <v>0.1267942583732057</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02515723270440252</v>
+        <v>0.02472089314194577</v>
       </c>
       <c r="E10">
-        <v>0.0008984725965858042</v>
+        <v>0.0007974481658692185</v>
       </c>
       <c r="F10">
-        <v>0.0664869721473495</v>
+        <v>0.06618819776714513</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1114106019766397</v>
+        <v>0.1108452950558214</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01347708894878706</v>
+        <v>0.0127591706539075</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1949685534591195</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="R10">
-        <v>0.09344115004492363</v>
+        <v>0.09250398724082935</v>
       </c>
       <c r="S10">
-        <v>0.3647798742138365</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1451612903225807</v>
+        <v>0.1433962264150943</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1088709677419355</v>
+        <v>0.1056603773584906</v>
       </c>
       <c r="K11">
-        <v>0.2096774193548387</v>
+        <v>0.2037735849056604</v>
       </c>
       <c r="L11">
-        <v>0.5282258064516129</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008064516129032258</v>
+        <v>0.01886792452830189</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7686567164179104</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1567164179104478</v>
+        <v>0.1597222222222222</v>
       </c>
       <c r="K12">
-        <v>0.007462686567164179</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="L12">
-        <v>0.02985074626865672</v>
+        <v>0.03472222222222222</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03731343283582089</v>
+        <v>0.03472222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.675</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.025</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01142857142857143</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2514285714285714</v>
+        <v>0.2311557788944724</v>
       </c>
       <c r="I15">
-        <v>0.06857142857142857</v>
+        <v>0.07537688442211055</v>
       </c>
       <c r="J15">
-        <v>0.32</v>
+        <v>0.321608040201005</v>
       </c>
       <c r="K15">
-        <v>0.04</v>
+        <v>0.04522613065326633</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01142857142857143</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04571428571428571</v>
+        <v>0.04522613065326633</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2514285714285714</v>
+        <v>0.2512562814070352</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02898550724637681</v>
+        <v>0.02575107296137339</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.178743961352657</v>
+        <v>0.1716738197424893</v>
       </c>
       <c r="I16">
-        <v>0.07246376811594203</v>
+        <v>0.07725321888412018</v>
       </c>
       <c r="J16">
-        <v>0.4057971014492754</v>
+        <v>0.4120171673819742</v>
       </c>
       <c r="K16">
-        <v>0.106280193236715</v>
+        <v>0.1072961373390558</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03381642512077294</v>
+        <v>0.03004291845493562</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04347826086956522</v>
+        <v>0.04721030042918455</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1304347826086956</v>
+        <v>0.1287553648068669</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01639344262295082</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1639344262295082</v>
+        <v>0.1593137254901961</v>
       </c>
       <c r="I17">
-        <v>0.09836065573770492</v>
+        <v>0.09313725490196079</v>
       </c>
       <c r="J17">
-        <v>0.4699453551912569</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="K17">
-        <v>0.07650273224043716</v>
+        <v>0.07107843137254902</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01366120218579235</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="N17">
-        <v>0.00273224043715847</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="O17">
-        <v>0.06830601092896176</v>
+        <v>0.07598039215686274</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09016393442622951</v>
+        <v>0.1029411764705882</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02094240837696335</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1884816753926702</v>
+        <v>0.1830985915492958</v>
       </c>
       <c r="I18">
-        <v>0.07853403141361257</v>
+        <v>0.07981220657276995</v>
       </c>
       <c r="J18">
-        <v>0.418848167539267</v>
+        <v>0.4178403755868544</v>
       </c>
       <c r="K18">
-        <v>0.09947643979057591</v>
+        <v>0.0892018779342723</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01047120418848168</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07329842931937172</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1099476439790576</v>
+        <v>0.1126760563380282</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01263537906137184</v>
+        <v>0.01352426412092283</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2310469314079422</v>
+        <v>0.2330946698488465</v>
       </c>
       <c r="I19">
-        <v>0.08212996389891697</v>
+        <v>0.08035003977724742</v>
       </c>
       <c r="J19">
-        <v>0.3763537906137184</v>
+        <v>0.3794749403341289</v>
       </c>
       <c r="K19">
-        <v>0.1028880866425993</v>
+        <v>0.09785202863961814</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02256317689530686</v>
+        <v>0.02307080350039777</v>
       </c>
       <c r="N19">
-        <v>0.0009025270758122744</v>
+        <v>0.0007955449482895784</v>
       </c>
       <c r="O19">
-        <v>0.05776173285198556</v>
+        <v>0.05807478122513922</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1137184115523466</v>
+        <v>0.1137629276054097</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Ball St._A.xlsx
+++ b/team_specific_matrix/Ball St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1656050955414013</v>
+        <v>0.1681159420289855</v>
       </c>
       <c r="C2">
-        <v>0.6178343949044586</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009554140127388535</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1273885350318471</v>
+        <v>0.136231884057971</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07961783439490445</v>
+        <v>0.0782608695652174</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02941176470588235</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02450980392156863</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7843137254901961</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1617647058823529</v>
+        <v>0.1636363636363636</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03773584905660377</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7735849056603774</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1886792452830189</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0603448275862069</v>
+        <v>0.05976095617529881</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01293103448275862</v>
+        <v>0.01195219123505976</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08189655172413793</v>
+        <v>0.0796812749003984</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2543103448275862</v>
+        <v>0.2549800796812749</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004310344827586207</v>
+        <v>0.00398406374501992</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1163793103448276</v>
+        <v>0.1195219123505976</v>
       </c>
       <c r="R6">
-        <v>0.08189655172413793</v>
+        <v>0.0796812749003984</v>
       </c>
       <c r="S6">
-        <v>0.3879310344827586</v>
+        <v>0.3904382470119522</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08620689655172414</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02873563218390805</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06896551724137931</v>
+        <v>0.07650273224043716</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09195402298850575</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005747126436781609</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1724137931034483</v>
+        <v>0.1748633879781421</v>
       </c>
       <c r="R7">
-        <v>0.07471264367816093</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="S7">
-        <v>0.4712643678160919</v>
+        <v>0.453551912568306</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09394572025052192</v>
+        <v>0.1015625</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0208768267223382</v>
+        <v>0.01953125</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08559498956158663</v>
+        <v>0.0859375</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1106471816283925</v>
+        <v>0.109375</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0208768267223382</v>
+        <v>0.01953125</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1419624217118998</v>
+        <v>0.14453125</v>
       </c>
       <c r="R8">
-        <v>0.1064718162839248</v>
+        <v>0.10546875</v>
       </c>
       <c r="S8">
-        <v>0.4196242171189979</v>
+        <v>0.4140625</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1473684210526316</v>
+        <v>0.1504854368932039</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02105263157894737</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07894736842105263</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1052631578947368</v>
+        <v>0.1067961165048544</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01052631578947368</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1842105263157895</v>
+        <v>0.1796116504854369</v>
       </c>
       <c r="R9">
-        <v>0.08947368421052632</v>
+        <v>0.0825242718446602</v>
       </c>
       <c r="S9">
-        <v>0.3631578947368421</v>
+        <v>0.3737864077669903</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1267942583732057</v>
+        <v>0.1258327165062916</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02472089314194577</v>
+        <v>0.02442635085122132</v>
       </c>
       <c r="E10">
-        <v>0.0007974481658692185</v>
+        <v>0.0007401924500370096</v>
       </c>
       <c r="F10">
-        <v>0.06618819776714513</v>
+        <v>0.06439674315321983</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1108452950558214</v>
+        <v>0.1117690599555885</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0127591706539075</v>
+        <v>0.01332346410066617</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.196969696969697</v>
+        <v>0.1998519615099926</v>
       </c>
       <c r="R10">
-        <v>0.09250398724082935</v>
+        <v>0.09030347890451518</v>
       </c>
       <c r="S10">
-        <v>0.3684210526315789</v>
+        <v>0.3693560325684678</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1433962264150943</v>
+        <v>0.1407942238267148</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1056603773584906</v>
+        <v>0.1046931407942238</v>
       </c>
       <c r="K11">
-        <v>0.2037735849056604</v>
+        <v>0.1985559566787004</v>
       </c>
       <c r="L11">
-        <v>0.5283018867924528</v>
+        <v>0.5379061371841155</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01886792452830189</v>
+        <v>0.01805054151624549</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7638888888888888</v>
+        <v>0.7712418300653595</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1597222222222222</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="K12">
-        <v>0.006944444444444444</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="L12">
-        <v>0.03472222222222222</v>
+        <v>0.03267973856209151</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03472222222222222</v>
+        <v>0.03267973856209151</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2916666666666667</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04166666666666666</v>
+        <v>0.0392156862745098</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01507537688442211</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2311557788944724</v>
+        <v>0.2300469483568075</v>
       </c>
       <c r="I15">
-        <v>0.07537688442211055</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="J15">
-        <v>0.321608040201005</v>
+        <v>0.323943661971831</v>
       </c>
       <c r="K15">
-        <v>0.04522613065326633</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01507537688442211</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04522613065326633</v>
+        <v>0.04694835680751173</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2512562814070352</v>
+        <v>0.2488262910798122</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02575107296137339</v>
+        <v>0.02371541501976284</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1716738197424893</v>
+        <v>0.1620553359683795</v>
       </c>
       <c r="I16">
-        <v>0.07725321888412018</v>
+        <v>0.07114624505928854</v>
       </c>
       <c r="J16">
-        <v>0.4120171673819742</v>
+        <v>0.4071146245059288</v>
       </c>
       <c r="K16">
-        <v>0.1072961373390558</v>
+        <v>0.1225296442687747</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03004291845493562</v>
+        <v>0.02766798418972332</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.003952569169960474</v>
       </c>
       <c r="O16">
-        <v>0.04721030042918455</v>
+        <v>0.04743083003952569</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1287553648068669</v>
+        <v>0.1343873517786561</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0196078431372549</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1593137254901961</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="I17">
-        <v>0.09313725490196079</v>
+        <v>0.09234234234234234</v>
       </c>
       <c r="J17">
-        <v>0.4558823529411765</v>
+        <v>0.4572072072072072</v>
       </c>
       <c r="K17">
-        <v>0.07107843137254902</v>
+        <v>0.06531531531531531</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0196078431372549</v>
+        <v>0.02027027027027027</v>
       </c>
       <c r="N17">
-        <v>0.002450980392156863</v>
+        <v>0.002252252252252252</v>
       </c>
       <c r="O17">
-        <v>0.07598039215686274</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1029411764705882</v>
+        <v>0.1013513513513514</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02347417840375587</v>
+        <v>0.03125</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1830985915492958</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="I18">
-        <v>0.07981220657276995</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="J18">
-        <v>0.4178403755868544</v>
+        <v>0.4151785714285715</v>
       </c>
       <c r="K18">
-        <v>0.0892018779342723</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009389671361502348</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="O18">
-        <v>0.08450704225352113</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1126760563380282</v>
+        <v>0.1160714285714286</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01352426412092283</v>
+        <v>0.01409495548961424</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2330946698488465</v>
+        <v>0.2336795252225519</v>
       </c>
       <c r="I19">
-        <v>0.08035003977724742</v>
+        <v>0.08234421364985163</v>
       </c>
       <c r="J19">
-        <v>0.3794749403341289</v>
+        <v>0.3805637982195846</v>
       </c>
       <c r="K19">
-        <v>0.09785202863961814</v>
+        <v>0.09495548961424333</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02307080350039777</v>
+        <v>0.02299703264094955</v>
       </c>
       <c r="N19">
-        <v>0.0007955449482895784</v>
+        <v>0.000741839762611276</v>
       </c>
       <c r="O19">
-        <v>0.05807478122513922</v>
+        <v>0.05712166172106825</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1137629276054097</v>
+        <v>0.1135014836795252</v>
       </c>
     </row>
   </sheetData>
